--- a/biology/Botanique/Monocotyledoneae_(classification_phylogénétique)/Monocotyledoneae_(classification_phylogénétique).xlsx
+++ b/biology/Botanique/Monocotyledoneae_(classification_phylogénétique)/Monocotyledoneae_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monocotyledoneae_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Monocotyledoneae_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Monocotyledoneae (Liliopsida, Monocotylédones), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monocotyledoneae_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Monocotyledoneae_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -938,7 +952,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Monocotyledoneae_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Monocotyledoneae_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -956,7 +970,9 @@
           <t>Débat scientifique relatif à la phylogénie des Monocotyledoneae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre reprend les conclusions de l' Angiosperm Phylogeny Website (voir ci-dessous), qui précise les termes des débats et les références.
 </t>
@@ -969,7 +985,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Monocotyledoneae_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Monocotyledoneae_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -989,16 +1005,89 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques
-The Angiosperm Phylogeny Group (2003) « An update of the Angiosperm Phylogeny Group classification for the orders and families of flowering plants: APG II », Botanical Journal of the Linnean Society, 141, pp. 399-436
-Sources internet
-Angiosperm Phylogeny Website
+          <t>Sources bibliographiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Angiosperm Phylogeny Group (2003) « An update of the Angiosperm Phylogeny Group classification for the orders and families of flowering plants: APG II », Botanical Journal of the Linnean Society, 141, pp. 399-436</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Monocotyledoneae_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monocotyledoneae_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Angiosperm Phylogeny Website
 Mikko's Phylogeny Archive
 The Taxonomicon
 NCBI Taxonomy Browser
-The Tree of Life Web Project
-Liens internes
-Arbre phylogénétique
+The Tree of Life Web Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Monocotyledoneae_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monocotyledoneae_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
 Archaeplastida (classification phylogénétique)
